--- a/gnn_contest/answers.xlsx
+++ b/gnn_contest/answers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,297 +434,240 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Answer</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Что такое граф и как он формально задаётся?</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Что такое граф и как он формально задаётся?</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Граф — это структура данных, состоящая из узлов (вершин), которые представляют объекты, и ребер (связей), которые отражают отношения между этими объектами. Формально граф задаётся множеством вершин и множеством рёбер, где каждое ребро соединяет пару вершин. Граф может быть направленным или ненаправленным, взвешенным или невзвешенным. Для описания графа часто используют матрицу смежности или списки смежности.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Какие основные компоненты используются для описания динамического графа?</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Какие основные компоненты используются для описания динамического графа?</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Основные компоненты для описания динамического графа — это узлы (вершины), ребра (связи) и временные метки или параметры, отражающие изменения структуры графа во времени.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>В чём отличие snapshot-based и event-based динамики?</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>В чём отличие snapshot-based и event-based динамики?</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Snapshot-based динамика моделирует состояние графа в дискретные моменты времени, фиксируя полное состояние сети на каждом шаге. Event-based динамика реагирует на отдельные события (например, добавление или удаление ребра) в непрерывном времени, обновляя состояние графа по мере их возникновения.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Какие задачи решают динамические GNN?</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Какие задачи решают динамические GNN?</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Динамические GNN решают задачи анализа графов, которые меняются во времени, например, отслеживание активности пользователей, изменения в транспортных сетях или графах транзакций, а также детектирование аномалий в динамических данных.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Почему для динамических графов требуется память узлов?</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Почему для динамических графов требуется память узлов?</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Для динамических графов память узлов необходима, чтобы сохранять и обновлять их состояния во времени, учитывая изменения структуры и признаков графа, что позволяет эффективно моделировать эволюцию и взаимодействия в графе.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Что такое гетерогенный граф?</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Что такое гетерогенный граф?</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>Гетерогенный граф — это граф, в котором узлы и/или рёбра делятся на разные типы или виды, например, узлы-пользователи и узлы-товары, а ребра могут иметь разные значения или типы связей.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Почему классические GNN плохо работают с гетерогенными графами?</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Почему классические GNN плохо работают с гетерогенными графами?</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Классические GNN плохо работают с гетерогенными графами, потому что они не учитывают различия в типах узлов и рёбер, а также не адаптированы к разнообразным отношениям и атрибутам, что приводит к потере важной структурной информации и снижению качества моделирования сложных взаимодействий.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Что такое network schema в гетерогенном графе?</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Что такое network schema в гетерогенном графе?</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>Network schema в гетерогенном графе — это схема или шаблон, описывающий типы узлов и типы рёбер между ними, а также их взаимосвязи. Она задаёт структуру гетерогенного графа, определяя, какие типы объектов и связей существуют в графе и как они могут взаимодействовать.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Что такое метапуть (meta-path)?</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Что такое метапуть (meta-path)?</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>Метапуть (meta-path) — это последовательность типов узлов и ребер в гетерогенном графе, описывающая определённый тип связи или путь между узлами разных типов, используемый для моделирования сложных отношений в графовых данных.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Чем метаграф отличается от метапути?</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Чем метаграф отличается от метапути?</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>Метаграф — это схема или структура, описывающая типы узлов и ребер в гетерогенном графе (например, в графе знаний), тогда как метапуть — это последовательность типов узлов и ребер в метаграфе, задающая путь или шаблон связей между узлами.</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Зачем узлы разных типов приводят к единому embedding-пространству?</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Зачем узлы разных типов приводят к единому embedding-пространству?</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>Узлы разных типов приводят к единому embedding-пространству, чтобы обеспечить сравнимость и интеграцию их признаков, позволяя модели учитывать взаимосвязи и контекст между узлами при обучении и предсказании. Это помогает эффективно агрегировать информацию через message passing и улучшает качество представлений для задач на графах.</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>В чём идея relation-level message passing?</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>В чём идея relation-level message passing?</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>Идея relation-level message passing заключается в том, что сообщения между узлами учитывают не только признаки самих узлов, но и признаки рёбер (отношений) между ними. Таким образом, при передаче сообщений информация о типах или свойствах связей интегрируется в процесс агрегации и обновления представлений узлов.</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>В чём основное отличие R-GCN от обычного GCN?</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>В чём основное отличие R-GCN от обычного GCN?</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>Основное отличие R-GCN от обычного GCN заключается в том, что R-GCN учитывает различные типы рёбер (отношений) в графе, используя отдельные параметры для каждого типа связи, тогда как обычный GCN работает с однородными рёбрами без различия типов отношений. Это позволяет R-GCN эффективно моделировать многореляционные графы.</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Почему R-GCN страдает от большого числа параметров?</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Почему R-GCN страдает от большого числа параметров?</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>R-GCN страдает от большого числа параметров из-за необходимости иметь отдельные параметры для каждого типа рёбер в графе, что значительно увеличивает объём обучаемых весов при большом разнообразии типов связей.</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Что такое basis decomposition в R-GCN?</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Что такое basis decomposition в R-GCN?</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>Basis decomposition в R-GCN — это метод снижения числа параметров модели за счёт представления весовых матриц для разных типов рёбер как линейной комбинации ограниченного набора базисных матриц. Это позволяет эффективно обучать модели на графах с большим числом типов рёбер, уменьшая переобучение и вычислительные затраты.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>В чём идея Heterogeneous Graph Transformer (HGT)?</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>В чём идея Heterogeneous Graph Transformer (HGT)?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>Идея Heterogeneous Graph Transformer (HGT) заключается в использовании трансформерной архитектуры с механизмом внимания, адаптированным для гетерогенных графов с разными типами узлов и рёбер. HGT учитывает типы узлов и рёбер при вычислении внимания, что позволяет эффективно моделировать сложные взаимосвязи в гетерогенных графах.</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Что такое Self-Supervised Learning (SSL)?</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Что такое Self-Supervised Learning (SSL)?</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>Self-Supervised Learning (SSL) — это метод обучения моделей, при котором модель учится на данных без явных меток, используя внутренние структуры или свойства данных для создания вспомогательных задач (предсказание частей данных, контекста и т.п.). В GNN SSL позволяет эффективно обучать представления графов или узлов без необходимости размеченных данных.</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Чем SSL отличается от unsupervised learning?</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Чем SSL отличается от unsupervised learning?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>Self-Supervised Learning (SSL) отличается от unsupervised learning тем, что в SSL модель обучается на автоматически сгенерированных из данных задачах с использованием встроенных сигналов (например, предсказание скрытых частей данных), тогда как unsupervised learning не использует никаких меток и обычно фокусируется на выявлении структуры данных без целевых задач.</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Какие SSL-задачи используются в графах?</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>Какие SSL-задачи используются в графах?</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>В графах для SSL (самостоятельного обучения с частичным контролем) используются задачи:
 - Обнаружение сообществ (community detection)
@@ -737,390 +680,312 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>В чём идея contrastive SSL?</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>В чём идея contrastive SSL?</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>Идея contrastive SSL (самостоятельного обучения с контрастивной задачей) заключается в том, чтобы обучать модель различать похожие (позитивные) и непохожие (негативные) представления данных. В контексте графовых нейросетей это достигается путём максимизации сходства между представлениями одного и того же узла или его аугментированных версий и минимизации сходства с представлениями других узлов, что помогает модели учиться более информативным и различимым признакам без меток.</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Что такое InfoNCE loss?</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Что такое InfoNCE loss?</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>InfoNCE loss — это функция потерь, используемая в контрастивном обучении для максимизации взаимной информации между положительными парами примеров и минимизации сходства с негативными. Она помогает модели учиться различать похожие и непохожие объекты, улучшая качество представлений.</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Почему non-contrastive SSL может коллапсировать?</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Почему non-contrastive SSL может коллапсировать?</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>Non-contrastive self-supervised learning (SSL) может коллапсировать, потому что без контрастивного сигнала представления узлов или графов становятся слишком похожими (затухание сигналов, over-smoothing). В GNN это проявляется в том, что после нескольких слоёв агрегации признаки усредняются и сходятся к одинаковым значениям, теряя различия между классами и узлами. В результате модель теряет способность к дифференциации и обучение замедляется или прекращается.</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Как stop-gradient предотвращает коллапс в BYOL?</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Как stop-gradient предотвращает коллапс в BYOL?</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>Stop-gradient предотвращает коллапс в BYOL, разрывая обратное распространение градиентов через одну из ветвей сети, что исключает тривиальное совпадение представлений и заставляет модель учиться полезным, различимым эмбеддингам.</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Почему GNN полезны в рекомендательных системах?</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Почему GNN полезны в рекомендательных системах?</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>GNN полезны в рекомендательных системах, потому что они эффективно моделируют сложные взаимодействия между пользователями и объектами, учитывают топологию графа взаимодействий, а также локальные и глобальные зависимости. Это позволяет улучшить качество рекомендаций за счёт более точного представления связей и влияния в сети пользователей и товаров.</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Как формулируется задача рекомендации в терминах графа?</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Как формулируется задача рекомендации в терминах графа?</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>Задача рекомендации в терминах графа формулируется как предсказание отсутствующих или потенциальных ребер (связей) между узлами (например, пользователями и объектами) на основе существующей структуры графа и признаков узлов.</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Что такое temporal link prediction?</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Что такое temporal link prediction?</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>Temporal link prediction — это задача предсказания появления, исчезновения или изменения связей (рёбер) в графе во времени, учитывая динамику и эволюцию графовой структуры. В контексте дорожных сетей это может означать прогнозирование изменения состояния дорог (например, возникновения пробок) в будущем на основе временных данных.</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Чем Temporal GNN отличаются от статических GNN?</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Чем Temporal GNN отличаются от статических GNN?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>Temporal GNN отличаются от статических GNN тем, что способны учитывать динамические изменения структуры графа и временные зависимости в данных, тогда как статические GNN работают с фиксированной, неизменной топологией графа. Temporal GNN моделируют эволюцию графа во времени, что важно для задач с динамическими графами (например, изменения в социальных сетях, транспортных или транзакционных сетях).</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Зачем в Temporal GNN используется память узлов?</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Зачем в Temporal GNN используется память узлов?</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>В Temporal GNN память узлов используется для сохранения и обновления их состояний во времени, что позволяет эффективно моделировать динамические изменения и временные зависимости в графе.</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Что такое event-based динамика в графах?</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Что такое event-based динамика в графах?</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>Event-based динамика в графах — это изменение структуры или признаков графа, вызванное отдельными событиями (например, добавлением/удалением узлов или рёбер), которые происходят во времени. Такой подход учитывает последовательность и время событий, позволяя моделировать и обновлять представления графа в режиме реального времени без необходимости полного перерасчёта.</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Какие компоненты входят в архитектуру Temporal Graph Network (TGN)?</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Какие компоненты входят в архитектуру Temporal Graph Network (TGN)?</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации об архитектуре Temporal Graph Network (TGN) и её компонентах. Поэтому на основе данного контекста ответить нельзя. Если нужна информация по TGN, могу предоставить её из общих знаний.</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Почему snapshot-подход плохо подходит для высокочастотных событий?</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Почему snapshot-подход плохо подходит для высокочастотных событий?</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>Snapshot-подход плохо подходит для высокочастотных событий, потому что при усреднении большого количества данных (снимков) информация о быстрых изменениях и локальных различиях теряется. В контексте GNN это аналогично затуханию сигналов (over-smoothing), когда представления узлов становятся слишком похожими, и модель теряет способность различать быстро меняющиеся или локальные особенности.</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Что такое inductive bias в контексте SSL?</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Что такое inductive bias в контексте SSL?</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>Inductive bias в контексте SSL (self-supervised learning) — это встроенные предположения или ограничения модели, которые помогают ей обобщать знания с обучающих данных на новые, невидимые данные. В GNN, например, inductive bias проявляется через архитектурные решения (как агрегация соседей, attention-механизмы в GAT), которые задают способ обработки и обобщения информации в графе, обеспечивая способность модели эффективно учиться на части графа и применять знания к другим его частям или новым графам.</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Почему SSL особенно эффективен для графовых данных?</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Почему SSL особенно эффективен для графовых данных?</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>SSL (самостоятельное обучение) особенно эффективно для графовых данных, потому что графы имеют сложные, неевклидовые структуры с множеством взаимосвязей между узлами, которые традиционные методы не могут захватить. SSL позволяет моделям GNN учиться на скрытых зависимостях и структурных паттернах графа без необходимости в большом количестве размеченных данных, используя агрегацию информации от соседей и локальные/глобальные зависимости, что улучшает представление узлов и общую производительность.</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>В чём разница между contrastive и non-contrastive SSL?</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>В чём разница между contrastive и non-contrastive SSL?</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>Contrastive SSL использует положительные и отрицательные пары для обучения модели различать похожие и разные объекты, тогда как non-contrastive SSL обучается без явного использования отрицательных пар, полагаясь на другие механизмы (например, предсказание или выравнивание представлений) для извлечения полезных признаков.</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Какую роль играют аугментации в graph SSL?</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Какую роль играют аугментации в graph SSL?</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>Аугментации в graph SSL создают разные версии графа или его подструктур, что помогает модели учиться устойчивым и инвариантным представлениям узлов и графов, улучшая обобщающую способность и качество самоконтролируемого обучения.</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Что такое collapse в self-supervised learning?</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Что такое collapse в self-supervised learning?</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>Collapse в self-supervised learning — это ситуация, когда модель выдает одинаковые или очень похожие представления (эмбеддинги) для разных входных данных, теряя способность различать их. В контексте GNN это приводит к потере информативности эмбеддингов и ухудшению качества обучения.</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Почему BYOL считается non-contrastive методом?</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Почему BYOL считается non-contrastive методом?</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>BYOL считается non-contrastive методом, потому что он обучается без использования негативных примеров (контрастивных пар). Вместо сравнения с негативами, BYOL минимизирует разницу между двумя представлениями одного и того же объекта, полученными через разные аугментации, что позволяет модели учиться полезным эмбеддингам без явного контраста.</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Какие задачи решает Scene Graph Generation?</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Какие задачи решает Scene Graph Generation?</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
           <t>Scene Graph Generation решает задачи структурированного представления сцены на изображении, включая выявление объектов, их атрибутов и отношений между ними, что позволяет лучше понять контекст и взаимодействия в визуальных данных.</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Почему GNN естественно подходят для Scene Graph Generation?</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Почему GNN естественно подходят для Scene Graph Generation?</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>GNN естественно подходят для Scene Graph Generation, потому что они эффективно моделируют сложные взаимодействия и зависимости между объектами в сцене, учитывая структуру графа. Механизм агрегации информации от соседних узлов позволяет захватывать как локальные, так и глобальные контексты, что важно для понимания отношений между объектами. Кроме того, GNN сохраняют топологию сцены и масштабируемы для больших и сложных графов, что делает их идеальными для генерации сценарных графов.</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Какие основные вызовы Scene Graph Generation описаны в курсе?</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Какие основные вызовы Scene Graph Generation описаны в курсе?</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о вызовах Scene Graph Generation.</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Какую роль играет context modeling в Scene Graph Generation?</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Какую роль играет context modeling в Scene Graph Generation?</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>Context modeling в Scene Graph Generation играет ключевую роль, так как позволяет учитывать взаимосвязи и контекст между объектами в сцене для более точного построения графа. Это улучшает понимание отношений между узлами (объектами) и повышает качество генерации сцены.</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Что такое PinSAGE и где он применяется?</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Что такое PinSAGE и где он применяется?</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>PinSAGE — это масштабируемая архитектура графовых нейронных сетей, основанная на идеях GraphSAGE, которая использует случайную выборку соседей и агрегацию через нейросети (например, LSTM или max pooling) для эффективного обучения эмбеддингов узлов в очень больших графах. PinSAGE специально разработан для рекомендательных систем, например, для рекомендаций товаров в Pinterest, где графы содержат миллионы узлов и рёбер.</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Как обучается GraphSAGE на датасете OGB-MAG?</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Как обучается GraphSAGE на датасете OGB-MAG?</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>GraphSAGE на датасете OGB-MAG обучается с использованием индуктивного подхода: для каждого узла на каждом слое выбирается фиксированное число соседей (выборка), затем их признаки агрегируются с помощью параметризованной функции (например, LSTM или mean-агрегации), что позволяет эффективно создавать эмбеддинги как для известных, так и для новых узлов. Такой подход снижает вычислительные затраты и позволяет масштабироваться на большие графы, характерные для OGB-MAG.</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Какие результаты показал GATv2 по сравнению с GAT на PubMed?</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Какие результаты показал GATv2 по сравнению с GAT на PubMed?</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о результатах GATv2 по сравнению с GAT на PubMed.</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Как реализовать training loop для HGT в DGL?</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>Как реализовать training loop для HGT в DGL?</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>Для реализации training loop для Heterogeneous Graph Transformer (HGT) в DGL нужно:
 1. Подготовить гетерогенный граф и датасет с метками.
@@ -1141,360 +1006,288 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Какие значения learning rate использовались в оригинальной статье GraphMAE?</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Какие значения learning rate использовались в оригинальной статье GraphMAE?</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о значениях learning rate, использованных в оригинальной статье GraphMAE.</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Как SSL применяется в молекулярных графах для QM9?</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Как SSL применяется в молекулярных графах для QM9?</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
           <t>В молекулярных графах QM9 SSL (самостоятельное обучение) применяется через задачи предсказания свойств молекул без использования меток, например, восстановление скрытых признаков узлов или ребер, контрастивное обучение между разными представлениями молекул, а также обучение на задачах предсказания структурных или химических характеристик, что позволяет модели эффективно извлекать информативные эмбеддинги для последующего решения задач квантовой химии.</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Какая версия PyTorch рекомендуется для обучения LightGCN?</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Какая версия PyTorch рекомендуется для обучения LightGCN?</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о рекомендуемой версии PyTorch для обучения LightGCN.</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Какие гиперпараметры использовались в оригинальной реализации TGN?</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Какие гиперпараметры использовались в оригинальной реализации TGN?</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
           <t>В оригинальной реализации TGN основными гиперпараметрами являются число голов внимания (multi-head attention), размер скрытых слоёв и коэффициенты регуляризации, которые требуют тщательной настройки для оптимальной работы модели.</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Какой GPU использовался авторами статьи HGT?</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Какой GPU использовался авторами статьи HGT?</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о том, какой GPU использовался авторами статьи HGT.</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Почему multi-hop message passing важен в GNN?</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Почему multi-hop message passing важен в GNN?</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
           <t>Multi-hop message passing важен в GNN, потому что он позволяет узлам получать и агрегировать информацию не только от непосредственных соседей, но и от более удалённых узлов через несколько шагов передачи сообщений. Это обеспечивает моделирование как локальных, так и глобальных зависимостей в графе, улучшая качество представлений узлов и учитывая сложную топологию графа.</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Как multi-hop propagation используется в рекомендательных системах?</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Как multi-hop propagation используется в рекомендательных системах?</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
           <t>Multi-hop propagation в рекомендательных системах используется для передачи информации через несколько шагов соседей в графе пользователей и предметов. Это позволяет учитывать не только прямые связи (например, пользователь — предмет), но и косвенные связи через промежуточные узлы (например, пользователь — похожий пользователь — предмет). В результате эмбеддинги узлов обогащаются более глобальной структурной информацией, что улучшает качество рекомендаций за счёт учёта многошаговых взаимодействий и скрытых зависимостей в графе.</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Почему простые embedding-based модели хуже работают в sparse-режиме?</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Почему простые embedding-based модели хуже работают в sparse-режиме?</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
           <t>Простые embedding-based модели хуже работают в sparse-режиме, потому что при разреженных данных признаки узлов недостаточно обогащаются за счёт соседей, а сами узлы имеют мало связей. Это приводит к слабой дифференциации представлений и плохой обобщающей способности модели. В отличие от них, GNN используют агрегацию информации от соседей, что помогает компенсировать разреженность и улучшает качество эмбеддингов.</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>В чём основное преимущество GNN над matrix factorization в RecSys?</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>В чём основное преимущество GNN над matrix factorization в RecSys?</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>Основное преимущество GNN над matrix factorization в RecSys — это способность учитывать структуру графа и взаимодействия между объектами, моделируя как локальные, так и глобальные зависимости через агрегацию информации от соседей. В отличие от matrix factorization, GNN эффективно работают с неевклидовыми данными, сохраняют топологию графа и масштабируются на большие и динамические графы, что улучшает качество рекомендаций.</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Почему LightGCN считается упрощением NGCF?</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Почему LightGCN считается упрощением NGCF?</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
           <t>LightGCN считается упрощением NGCF, потому что он исключает из модели сложные компоненты, такие как нелинейные активации и проекции признаков, оставляя только ключевой механизм агрегации соседних узлов. Это упрощение снижает вычислительную сложность и улучшает масштабируемость, сохраняя при этом эффективность представлений.</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Какую роль играет aggregation в GNN?</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Какую роль играет aggregation в GNN?</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
           <t>Aggregation в GNN играет ключевую роль — она собирает и объединяет информацию от соседних узлов, чтобы обновить представление каждого узла с учётом его окружения. Это позволяет учитывать локальные и глобальные зависимости, сохранять топологию графа и эффективно моделировать сложные взаимосвязи между объектами.</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Почему семантика рёбер важнее структуры в гетерогенных графах?</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Почему семантика рёбер важнее структуры в гетерогенных графах?</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
           <t>Семантика рёбер важнее структуры в гетерогенных графах, потому что в таких графах ребра отражают разные типы отношений между узлами. Эти типы отношений несут ключевую информацию о взаимодействиях и значениях связей, тогда как простая структура (наличие или отсутствие ребра) не учитывает различия между типами связей. Поэтому для правильного анализа и моделирования гетерогенных графов важно учитывать именно семантику рёбер.</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Как метапути помогают моделировать семантические связи?</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Как метапути помогают моделировать семантические связи?</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
           <t>Метапути помогают моделировать семантические связи, задавая последовательности типов узлов и ребер в гетерогенных графах, что позволяет учитывать сложные и многозначные отношения между объектами, улучшая представление и анализ их взаимосвязей.</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Почему обычный GNN не способен различать разные типы соседей?</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Почему обычный GNN не способен различать разные типы соседей?</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
           <t>Обычный GNN агрегирует информацию от всех соседей одинаково, не учитывая различия между типами соседей. Поэтому он не способен различать разные типы соседей, так как не использует информацию о типах рёбер или узлов при агрегации.</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Как HGT объединяет преимущества relation-level и semantic-level подходов?</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Как HGT объединяет преимущества relation-level и semantic-level подходов?</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
           <t>Heterogeneous Graph Transformer (HGT) объединяет преимущества relation-level и semantic-level подходов, используя relation-level внимание для учета различных типов связей между узлами и semantic-level внимание для захвата разнообразных семантических значений узлов и их взаимодействий. Таким образом, HGT эффективно моделирует сложные гетерогенные графы, учитывая как структуру отношений, так и смысловую информацию.</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Почему SSL-представления лучше переносятся между задачами?</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Почему SSL-представления лучше переносятся между задачами?</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
           <t>SSL-представления лучше переносятся между задачами, потому что они обучаются на более общих и устойчивых признаках графа через самоконтролируемое обучение, что позволяет захватывать информативные и универсальные эмбеддинги узлов, не зависящие от конкретной задачи.</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Как SSL связано с максимизацией взаимной информации?</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Как SSL связано с максимизацией взаимной информации?</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
           <t>В SSL (самостоятельном обучении) максимизация взаимной информации используется для того, чтобы обучить модель извлекать информативные и устойчивые представления данных. В контексте GNN это означает максимизацию взаимной информации между локальными представлениями узлов и глобальным представлением графа, что помогает сохранить уникальные признаки узлов и их окружения без излишнего усреднения (over-smoothing). Таким образом, модель учится выделять значимые зависимости и структуры в графе без необходимости в метках.</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Почему contrastive SSL требует большого числа негативных примеров?</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Почему contrastive SSL требует большого числа негативных примеров?</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
           <t>Contrastive SSL требует большого числа негативных примеров, чтобы эффективно различать положительные пары от множества разнообразных отрицательных, что помогает модели лучше учиться различать узлы и избегать схлопывания представлений.</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Почему non-contrastive SSL требует архитектурных ограничений?</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Почему non-contrastive SSL требует архитектурных ограничений?</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
           <t>Non-contrastive self-supervised learning (SSL) в GNN требует архитектурных ограничений, чтобы избежать вырождения представлений (например, коллапса к тривиальному решению), поскольку в отсутствии негативных примеров модель может сходиться к одинаковым эмбеддингам для всех узлов. Такие ограничения (например, остаточные связи, нормализация, DropEdge, адаптивные механизмы внимания) помогают сохранить разнообразие и информативность признаков, стабилизируют обучение и предотвращают затухание сигналов в глубоких слоях.</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Какую роль играет context modeling в Scene Graph Generation?</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Какую роль играет context modeling в Scene Graph Generation?</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
           <t>В контексте Scene Graph Generation, context modeling играет ключевую роль в учёте взаимосвязей и окружения объектов, что позволяет более точно предсказывать отношения между ними и улучшать качество построения графа сцены.</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Почему attention часто используется вместе с GNN в CV-задачах?</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Почему attention часто используется вместе с GNN в CV-задачах?</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
           <t>Attention в GNN для CV-задач используется потому, что он позволяет динамически взвешивать вклад соседних узлов, учитывая их значимость для текущего узла. Это улучшает адаптивность и гибкость модели, помогает выделять важные локальные структуры и особенности на изображениях, что повышает качество представлений и устойчивость модели к шуму и вариациям данных.</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Как scene graph используется в visual question answering?</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Как scene graph используется в visual question answering?</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
           <t>Scene graph в visual question answering (VQA) используется для структурированного представления объектов и их отношений на изображении. Он моделирует объекты как узлы графа, а отношения между ними — как рёбра. Это позволяет GNN эффективно агрегировать и передавать информацию между объектами, улучшая понимание сцены и контекста для точного ответа на вопросы о визуальном содержимом.</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Как GNN используются для обучения diffusion models на графах?</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Как GNN используются для обучения diffusion models на графах?</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
           <t>GNN используются в обучении diffusion models на графах для эффективного моделирования распространения информации или состояний по узлам и рёбрам графа. Механизм агрегации сообщений в GNN позволяет учитывать локальные и глобальные зависимости, сохраняя топологию графа и динамически обновляя представления узлов на каждом шаге диффузии. Это обеспечивает точное моделирование процессов диффузии, включая временные изменения и сложные взаимодействия, что невозможно реализовать традиционными нейросетями. Кроме того, масштабируемость GNN и методы обучения на подграфах (например, GraphSAGE, Cluster-GCN) позволяют эффективно работать с большими и динамическими графами, что важно для diffusion models.</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Как реализовать temporal attention в HGT?</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>Как реализовать temporal attention в HGT?</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>Temporal attention в Heterogeneous Graph Transformer (HGT) реализуется путем введения временных меток или временных признаков в механизм внимания, что позволяет модели учитывать временную динамику узлов и ребер. Для этого:
 1. Включают временные эмбеддинги (time embeddings) для узлов или ребер, которые кодируют момент или интервал времени.
@@ -1505,45 +1298,36 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Какие аугментации используются в GraphCL для молекулярных графов?</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Какие аугментации используются в GraphCL для молекулярных графов?</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
           <t>В GraphCL для молекулярных графов используются аугментации, такие как случайное удаление узлов или рёбер, маскирование признаков узлов, а также подвыборка подграфов. Эти методы помогают улучшить обобщающую способность модели за счёт создания различных представлений одного и того же графа.</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Какие результаты показал PinSAGE на датасете Amazon?</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Какие результаты показал PinSAGE на датасете Amazon?</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о результатах PinSAGE на датасете Amazon.</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Как обучить GNN с reinforcement learning?</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>Как обучить GNN с reinforcement learning?</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>Обучение GNN с использованием reinforcement learning (RL) обычно строится на интеграции GNN в RL-агент, где GNN служит для обработки графовых состояний или представлений среды. Основные шаги:
 1. Представление среды в виде графа, где узлы и рёбра кодируют состояние.
@@ -1555,45 +1339,36 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Какой loss используется в Graph Transformers для node classification?</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Какой loss используется в Graph Transformers для node classification?</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
           <t>В Graph Transformers для задачи классификации узлов обычно используется кросс-энтропийный loss (cross-entropy loss).</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Как реализовать batching для миллиардных графов в PyG?</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Как реализовать batching для миллиардных графов в PyG?</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
           <t>Для миллиардных графов в PyG batching реализуют через методы подвыборки (sampling), такие как GraphSAGE или Cluster-GCN, которые выбирают подграфы или кластеры узлов и рёбер для обучения. Это снижает вычислительную нагрузку и позволяет обрабатывать большие графы пакетами. В PyG используются классы и функции для индуктивного обучения с батчингом подграфов, что обеспечивает масштабируемость на очень больших графах.</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Как объединить RAG и diffusion models для reasoning?</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>Как объединить RAG и diffusion models для reasoning?</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>Для объединения RAG (Retrieval-Augmented Generation) и diffusion models для reasoning можно использовать следующий подход:
 1. RAG обеспечивает эффективный поиск и извлечение релевантной информации из большого корпуса данных, формируя контекст для задачи reasoning.
@@ -1603,285 +1378,228 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Почему структурная информация важна для reasoning в GNN?</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Почему структурная информация важна для reasoning в GNN?</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
           <t>Структурная информация важна для reasoning в GNN, потому что она сохраняет топологию графа и позволяет моделировать сложные локальные и глобальные зависимости между объектами через агрегацию информации от соседних узлов. Это обеспечивает полноценное понимание взаимосвязей и взаимодействий, которые невозможно захватить традиционными нейросетями.</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>В чём разница между локальным и глобальным контекстом в графе?</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>В чём разница между локальным и глобальным контекстом в графе?</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
           <t>Локальный контекст в графе — это информация о соседних узлах и ребрах, непосредственно связанных с рассматриваемой вершиной (например, загруженность соседних перекрёстков). Глобальный контекст — это информация о всей структуре графа и влиянии удалённых узлов и связей на данную вершину (например, общая структура дорожной сети и влияние отдалённых районов).</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Почему attention-механизмы хорошо сочетаются с графами?</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Почему attention-механизмы хорошо сочетаются с графами?</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
           <t>Attention-механизмы хорошо сочетаются с графами, потому что они динамически взвешивают важность соседних узлов для каждого узла, что позволяет гибко учитывать разные аспекты взаимосвязей и улучшает представление графа. Multi-Head Attention дополнительно повышает устойчивость модели и захватывает разнообразные зависимости между узлами.</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Как graph-based reasoning отличается от sequence-based reasoning?</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Как graph-based reasoning отличается от sequence-based reasoning?</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
           <t>Graph-based reasoning отличается от sequence-based reasoning тем, что он работает с неупорядоченными, неевклидовыми структурами (графами), где узлы связаны произвольным числом и типами рёбер, а информация распространяется через сложные взаимодействия между соседями. В отличие от последовательностей, графы нельзя представить в виде фиксированной последовательности или решётки, поэтому традиционные методы (MLP, CNN, RNN) не способны эффективно захватывать эти зависимости. Graph-based reasoning использует агрегацию информации от соседних узлов, что позволяет моделировать локальные и глобальные зависимости в графе, обеспечивая более гибкое и масштабируемое представление данных.</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Почему GNN считаются inductive моделями?</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Почему GNN считаются inductive моделями?</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
           <t>GNN считаются inductive моделями, потому что они обучаются на подграфах и могут обобщать знания на новые, ранее не виденные узлы и подграфы, используя механизм агрегации информации от соседей, что позволяет масштабироваться и адаптироваться к динамическим изменениям в графе.</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Почему метапути усиливают интерпретируемость моделей?</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Почему метапути усиливают интерпретируемость моделей?</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
           <t>Метапути усиливают интерпретируемость моделей, так как они явно задают семантические пути между типами узлов в гетерогенных графах, позволяя понять, каким образом и через какие связи информация передаётся и агрегируется. Это помогает выявлять значимые отношения и механизмы влияния между узлами, делая выводы модели более прозрачными и осмысленными.</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Как гетерогенные графы помогают моделировать реальные системы?</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Как гетерогенные графы помогают моделировать реальные системы?</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
           <t>Гетерогенные графы позволяют моделировать реальные системы, учитывая разные типы узлов и связей, что отражает сложные и разнообразные взаимодействия между объектами в таких системах. Это обеспечивает более точное и информативное представление структуры и динамики реальных данных.</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Почему SSL особенно полезен при недостатке размеченных данных?</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Почему SSL особенно полезен при недостатке размеченных данных?</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
           <t>SSL (самостоятельное обучение) особенно полезен при недостатке размеченных данных, потому что оно позволяет модели эффективно использовать большое количество неразмеченных данных для обучения, извлекая полезные представления и структуры без необходимости в ручной разметке. В контексте графовых нейронных сетей это помогает лучше учитывать графовую структуру и взаимосвязи между узлами, что улучшает качество модели при ограниченном количестве размеченных примеров.</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Как SSL помогает улучшить downstream-задачи на графах?</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Как SSL помогает улучшить downstream-задачи на графах?</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
           <t>Self-Supervised Learning (SSL) на графах помогает улучшить downstream-задачи, обучая модель на предварительных задачах без меток, что позволяет GNN лучше захватывать структурные и контекстные зависимости в графе. Это приводит к более информативным и обобщаемым эмбеддингам узлов или графов, снижает переобучение и улучшает производительность на целевых задачах классификации или регрессии.</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Почему graph SSL часто использует подграфы, а не весь граф?</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Почему graph SSL часто использует подграфы, а не весь граф?</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
           <t>Graph SSL часто использует подграфы, а не весь граф, чтобы обеспечить масштабируемость и снизить потребление памяти, а также эффективно обучать модели на больших и разреженных графах, используя выборку соседей для уменьшения вычислительных затрат и возможности обучения на небольших батчах.</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>В чём связь между Scene Graph Generation и reasoning?</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>В чём связь между Scene Graph Generation и reasoning?</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
           <t>Связь между Scene Graph Generation и reasoning заключается в том, что Scene Graph Generation создаёт структурированное представление сцены в виде графа объектов и их отношений, что служит основой для reasoning — логического вывода и понимания сложных взаимосвязей между объектами в сцене. Это позволяет моделям делать более глубокие выводы и принимать решения на основе контекста и отношений, а не только отдельных объектов.</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Почему Scene Graph Generation не сводится к простой классификации отношений?</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Почему Scene Graph Generation не сводится к простой классификации отношений?</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
           <t>Scene Graph Generation не сводится к простой классификации отношений, потому что отношения между объектами в сцене зависят от сложных, контекстуальных и структурных взаимодействий между множеством объектов одновременно. Это требует учета не только пар объектов, но и их окружения и взаимосвязей в графовой структуре, что выходит за рамки простой классификации отдельных пар.</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Почему graph-based context modeling эффективнее sequential в CV-задачах?</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Почему graph-based context modeling эффективнее sequential в CV-задачах?</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
           <t>Graph-based context modeling эффективнее sequential в CV-задачах, потому что графы лучше отражают сложные и неевклидовые взаимосвязи между элементами изображения, которые не укладываются в линейную последовательность. В отличие от последовательных моделей (RNN, CNN), графовые нейросети учитывают произвольные связи и структуру данных, что позволяет эффективнее захватывать контекст и взаимодействия между объектами на изображении.</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Как GNN помогают бороться с long-tail распределениями?</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Как GNN помогают бороться с long-tail распределениями?</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
           <t>GNN помогают бороться с long-tail распределениями за счёт агрегации информации от соседних узлов, что позволяет эффективно использовать данные даже для редко встречающихся (long-tail) объектов. Благодаря учёту топологии графа и локальных связей, GNN обогащают представления редких узлов контекстом из более частых соседей, улучшая качество их эмбеддингов и обобщение модели.</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Почему Graph-RAG потенциально сильнее обычного RAG?</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Почему Graph-RAG потенциально сильнее обычного RAG?</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
           <t>Graph-RAG потенциально сильнее обычного RAG, потому что использует графовые нейронные сети (например, GraphSAGE или GAT) для более эффективного и адаптивного агрегирования информации из связанных документов или узлов, что улучшает качество контекстного представления и позволяет лучше учитывать структуру данных, в отличие от обычного RAG, который работает с плоскими текстовыми фрагментами без учёта графовых связей.</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Как граф может использоваться для reranking в RAG?</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Как граф может использоваться для reranking в RAG?</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
           <t>Граф в reranking для RAG используется для учета структурных связей между элементами (например, документами или фрагментами), что позволяет улучшить качество ранжирования за счет информации о взаимосвязях. С помощью GNN, например GraphSAGE, для каждого узла (фрагмента) агрегируются признаки соседей, отражающие контекст и взаимное влияние, после чего обновленные представления используются для более точного переоценивания релевантности. Таким образом, графовая структура помогает учитывать не только индивидуальные признаки, но и их взаимосвязи, повышая качество reranking.</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Почему graph-RAG лучше справляется с комплексными вопросами?</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Почему graph-RAG лучше справляется с комплексными вопросами?</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
           <t>Graph-RAG лучше справляется с комплексными вопросами благодаря использованию GraphSAGE, который применяет индуктивное обучение и эффективные функции агрегации (например, LSTM Aggregator), позволяющие улавливать сложные зависимости между соседями. Это обеспечивает масштабируемость и гибкость модели при обработке больших графов и новых узлов, что улучшает качество ответов на сложные запросы.</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Как обучить LLM end-to-end вместе с GNN в RAG?</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Как обучить LLM end-to-end вместе с GNN в RAG?</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
           <t>Для обучения LLM end-to-end вместе с GNN в Retrieval-Augmented Generation (RAG) необходимо интегрировать GNN как компонент, отвечающий за обработку графовых данных (например, построение узловых эмбеддингов через GCN или GraphSAGE), а LLM — за генерацию текста на основе этих эмбеддингов и дополнительной информации. Обучение проводится совместно, с оптимизацией параметров обеих моделей через общий лосс, используя методы регуляризации (Dropout, L2-регуляризацию), нормализации (BatchNorm/LayerNorm) и техники ускорения (Cluster-GCN, GraphSAINT) для эффективной работы с большими графами и предотвращения переобучения.</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Какие prompt-engineering техники лучше всего работают для Graph-RAG?</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>Какие prompt-engineering техники лучше всего работают для Graph-RAG?</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>Для Graph-RAG эффективны следующие prompt-engineering техники:
 1. Чёткое формулирование задачи с указанием контекста (например, выделение ключевых архитектур GNN или методов оптимизации).
@@ -1894,90 +1612,72 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Как использовать reinforcement learning для оптимизации retrieval?</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Как использовать reinforcement learning для оптимизации retrieval?</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
           <t>Reinforcement learning (RL) можно использовать для оптимизации retrieval в GNN, обучая агент выбирать наиболее релевантные подграфы, узлы или рёбра для обучения или поиска. Агент получает награду за улучшение качества retrieval (например, точности или скорости), что позволяет эффективно подвыбирать элементы графа, сохраняя структуру и релевантность. Такой подход помогает ускорить вычисления и повысить качество результатов, особенно на больших графах.</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Какие diffusion models применяются к графам знаний?</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Какие diffusion models применяются к графам знаний?</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о конкретных diffusion models, применяемых к графам знаний.</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Какой tokenizer лучше использовать для Graph-RAG?</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Какой tokenizer лучше использовать для Graph-RAG?</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
           <t>Для Graph-RAG лучше использовать токенизатор, который эффективно обрабатывает структуру графа и сохраняет контекст узлов и их связей. Обычно применяют специализированные токенизаторы, учитывающие топологию графа, либо адаптированные версии последовательных токенизаторов (например, WordPiece или Byte-Pair Encoding), интегрированные с механизмами агрегации соседей, как в GraphSAGE. Важно, чтобы токенизатор поддерживал работу с эмбеддингами узлов и их соседей для качественного представления графовой информации.</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Какой benchmark является стандартом для оценки Graph-RAG?</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Какой benchmark является стандартом для оценки Graph-RAG?</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
           <t>В предоставленном контексте нет информации о стандартном benchmark для оценки Graph-RAG.</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Какие методы сжатия графов лучше подходят для RAG?</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Какие методы сжатия графов лучше подходят для RAG?</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
           <t>Для Retrieval-Augmented Generation (RAG) лучше подходят методы сжатия графов, использующие списки ребер (edge list) или списки смежности, так как они обеспечивают экономию памяти при работе с разреженными графами и минимальное использование ресурсов. Матрица смежности менее эффективна из-за высокого потребления памяти.</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Как объединить Graph-RAG и Tool-Calling LLM?</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>Как объединить Graph-RAG и Tool-Calling LLM?</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>Graph-RAG (Graph-based Retrieval-Augmented Generation) использует GNN (например, GraphSAGE) для эффективного извлечения релевантной информации из графа, а Tool-Calling LLM — для вызова внешних инструментов и выполнения специализированных задач. Чтобы объединить их, можно:
 1. Использовать Graph-RAG для поиска и агрегации релевантных узлов и их признаков в графе с помощью GraphSAGE (выборка соседей, агрегация признаков).
